--- a/R-Basics/R_Basics_I_Functions.xlsx
+++ b/R-Basics/R_Basics_I_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stsch.SHARKBAITQUINN\Desktop\Desktop24\Workingdirec\r_wd_new\NOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE13F27-0420-4201-B87B-ABE7FD967FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AE2122-6C2C-4928-A976-1ADAD6FC0B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{D20BB32A-F8B4-4032-B314-2F1E21D1B98A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="219">
   <si>
     <t>Function</t>
   </si>
@@ -464,9 +464,6 @@
     <t>factor()</t>
   </si>
   <si>
-    <t>Summary has several functions, dependent on input, for table: quantiles, mean, median; different output and usage with lm()</t>
-  </si>
-  <si>
     <t>Factorizing a character vector (parallel numeric ordered vector); helps with plotting via ggplot(), otherwise e.g. likert scale values may have jumbled order (see code of Rmarkdown example)</t>
   </si>
   <si>
@@ -512,12 +509,6 @@
     <t>qnorm() qunif() pnorm() dnorm()… …</t>
   </si>
   <si>
-    <t>log() log2() log10()</t>
-  </si>
-  <si>
-    <t>Different types of logarithm</t>
-  </si>
-  <si>
     <t>cos() sin() tan()</t>
   </si>
   <si>
@@ -668,10 +659,40 @@
     <t>9.6</t>
   </si>
   <si>
-    <t>unlits()</t>
-  </si>
-  <si>
     <t>Removes values from a list and puts it into a vector.</t>
+  </si>
+  <si>
+    <t>Summary has several functions, dependent on input, for a regular table: quantiles, mean, median of the columns; different output and usage with lm()</t>
+  </si>
+  <si>
+    <t>unlist()</t>
+  </si>
+  <si>
+    <t>log() log2() log10() exp() pi</t>
+  </si>
+  <si>
+    <t>Different types of logarithm, exp() for Euler's number; pi is a standard object that can be called just via typing "pi" in the script.</t>
+  </si>
+  <si>
+    <t>complex() Re() Im()</t>
+  </si>
+  <si>
+    <t>Setting up a complex number, Re() and Im() can be used to extract the real an imaginary part of a complex number</t>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>legend()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add legend to plot. </t>
+  </si>
+  <si>
+    <t>axis()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function that can be used to adjust axis tick marks  of a plot and more. </t>
   </si>
 </sst>
 </file>
@@ -1085,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A64944-0929-4325-AFE9-AA941AD8CC1F}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1177,7 +1198,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
@@ -1443,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D25" s="6">
         <v>7</v>
@@ -1493,13 +1514,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>61</v>
@@ -1572,7 +1593,7 @@
         <v>73</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.5">
@@ -1605,7 +1626,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
@@ -1709,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>99</v>
@@ -1717,16 +1738,16 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.5">
@@ -1779,7 +1800,7 @@
         <v>108</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D49" s="6">
         <v>12</v>
@@ -1835,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D53" s="6">
         <v>14</v>
@@ -1919,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="6">
         <v>12</v>
@@ -1927,27 +1948,27 @@
     </row>
     <row r="60" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>76</v>
@@ -1955,13 +1976,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>76</v>
@@ -1969,13 +1990,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>76</v>
@@ -1983,16 +2004,16 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.5">
@@ -2011,139 +2032,139 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A66" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C66" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+    </row>
+    <row r="67" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A67" s="4" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A68" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A69" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A70" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A72" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A73" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A74" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A75" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>112</v>
@@ -2151,69 +2172,69 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A76" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A77" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="63" x14ac:dyDescent="0.5">
       <c r="A78" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A79" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A80" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>76</v>
@@ -2221,13 +2242,13 @@
     </row>
     <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A81" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>76</v>
@@ -2235,13 +2256,13 @@
     </row>
     <row r="82" spans="1:4" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A82" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>112</v>
@@ -2249,45 +2270,87 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A83" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A84" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="A87" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="A88" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="21" x14ac:dyDescent="0.65">
-      <c r="A89" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A85" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A86" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A87" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="A90" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="A91" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="21" x14ac:dyDescent="0.65">
+      <c r="A92" s="7" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
